--- a/files/applications/segments_template.xlsx
+++ b/files/applications/segments_template.xlsx
@@ -5,32 +5,48 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aziz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RakhimovA\Desktop\sd\admin_panel\files\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="1965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3420" windowHeight="1965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="page1" sheetId="1" r:id="rId1"/>
+    <sheet name="page2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Код номенклатуры</t>
   </si>
   <si>
     <t>Наименование номенклатуры</t>
   </si>
+  <si>
+    <t>Код сегмента</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Код региона</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -324,26 +340,26 @@
   </sheetPr>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
@@ -25343,4 +25359,38 @@
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>